--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lif-Il6st.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lif-Il6st.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Lif</t>
+  </si>
+  <si>
+    <t>Il6st</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Lif</t>
-  </si>
-  <si>
-    <t>Il6st</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.034912</v>
+        <v>0.05273566666666666</v>
       </c>
       <c r="H2">
-        <v>0.104736</v>
+        <v>0.158207</v>
       </c>
       <c r="I2">
-        <v>0.2228629427798713</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.2228629427798713</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.01778300000001</v>
+        <v>73.202511</v>
       </c>
       <c r="N2">
-        <v>132.053349</v>
+        <v>219.607533</v>
       </c>
       <c r="O2">
-        <v>0.253483683026081</v>
+        <v>0.3264904632507938</v>
       </c>
       <c r="P2">
-        <v>0.253483683026081</v>
+        <v>0.3264904632507938</v>
       </c>
       <c r="Q2">
-        <v>1.536748840096</v>
+        <v>3.860383219259</v>
       </c>
       <c r="R2">
-        <v>13.830739560864</v>
+        <v>34.743448973331</v>
       </c>
       <c r="S2">
-        <v>0.05649211954587254</v>
+        <v>0.3264904632507938</v>
       </c>
       <c r="T2">
-        <v>0.05649211954587254</v>
+        <v>0.3264904632507938</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.034912</v>
+        <v>0.05273566666666666</v>
       </c>
       <c r="H3">
-        <v>0.104736</v>
+        <v>0.158207</v>
       </c>
       <c r="I3">
-        <v>0.2228629427798713</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.2228629427798713</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>299.30185</v>
       </c>
       <c r="O3">
-        <v>0.5745264004968146</v>
+        <v>0.4449719839907295</v>
       </c>
       <c r="P3">
-        <v>0.5745264004968147</v>
+        <v>0.4449719839907295</v>
       </c>
       <c r="Q3">
-        <v>3.483075395733334</v>
+        <v>5.261294198105555</v>
       </c>
       <c r="R3">
-        <v>31.3476785616</v>
+        <v>47.35164778295</v>
       </c>
       <c r="S3">
-        <v>0.128040644319447</v>
+        <v>0.4449719839907295</v>
       </c>
       <c r="T3">
-        <v>0.1280406443194471</v>
+        <v>0.4449719839907295</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.034912</v>
+        <v>0.05273566666666666</v>
       </c>
       <c r="H4">
-        <v>0.104736</v>
+        <v>0.158207</v>
       </c>
       <c r="I4">
-        <v>0.2228629427798713</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.2228629427798713</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.01418566666667</v>
+        <v>39.54025133333334</v>
       </c>
       <c r="N4">
-        <v>57.042557</v>
+        <v>118.620754</v>
       </c>
       <c r="O4">
-        <v>0.1094963327100864</v>
+        <v>0.1763534446908907</v>
       </c>
       <c r="P4">
-        <v>0.1094963327100864</v>
+        <v>0.1763534446908907</v>
       </c>
       <c r="Q4">
-        <v>0.6638232499946666</v>
+        <v>2.085181514230889</v>
       </c>
       <c r="R4">
-        <v>5.974409249952</v>
+        <v>18.766633628078</v>
       </c>
       <c r="S4">
-        <v>0.02440267493137374</v>
+        <v>0.1763534446908907</v>
       </c>
       <c r="T4">
-        <v>0.02440267493137374</v>
+        <v>0.1763534446908907</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.034912</v>
+        <v>0.05273566666666666</v>
       </c>
       <c r="H5">
-        <v>0.104736</v>
+        <v>0.158207</v>
       </c>
       <c r="I5">
-        <v>0.2228629427798713</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.2228629427798713</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,276 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.852095</v>
+        <v>11.70021233333333</v>
       </c>
       <c r="N5">
-        <v>32.556285</v>
+        <v>35.100637</v>
       </c>
       <c r="O5">
-        <v>0.06249358376701794</v>
+        <v>0.05218410806758597</v>
       </c>
       <c r="P5">
-        <v>0.06249358376701795</v>
+        <v>0.05218410806758598</v>
       </c>
       <c r="Q5">
-        <v>0.37886834064</v>
+        <v>0.6170184975398888</v>
       </c>
       <c r="R5">
-        <v>3.40981506576</v>
+        <v>5.553166477859</v>
       </c>
       <c r="S5">
-        <v>0.01392750398317802</v>
+        <v>0.05218410806758597</v>
       </c>
       <c r="T5">
-        <v>0.01392750398317802</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.1217403333333333</v>
-      </c>
-      <c r="H6">
-        <v>0.365221</v>
-      </c>
-      <c r="I6">
-        <v>0.7771370572201287</v>
-      </c>
-      <c r="J6">
-        <v>0.7771370572201287</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>44.01778300000001</v>
-      </c>
-      <c r="N6">
-        <v>132.053349</v>
-      </c>
-      <c r="O6">
-        <v>0.253483683026081</v>
-      </c>
-      <c r="P6">
-        <v>0.253483683026081</v>
-      </c>
-      <c r="Q6">
-        <v>5.358739575014335</v>
-      </c>
-      <c r="R6">
-        <v>48.22865617512901</v>
-      </c>
-      <c r="S6">
-        <v>0.1969915634802085</v>
-      </c>
-      <c r="T6">
-        <v>0.1969915634802085</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.1217403333333333</v>
-      </c>
-      <c r="H7">
-        <v>0.365221</v>
-      </c>
-      <c r="I7">
-        <v>0.7771370572201287</v>
-      </c>
-      <c r="J7">
-        <v>0.7771370572201287</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>99.76728333333334</v>
-      </c>
-      <c r="N7">
-        <v>299.30185</v>
-      </c>
-      <c r="O7">
-        <v>0.5745264004968146</v>
-      </c>
-      <c r="P7">
-        <v>0.5745264004968147</v>
-      </c>
-      <c r="Q7">
-        <v>12.14570232876111</v>
-      </c>
-      <c r="R7">
-        <v>109.31132095885</v>
-      </c>
-      <c r="S7">
-        <v>0.4464857561773676</v>
-      </c>
-      <c r="T7">
-        <v>0.4464857561773677</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.1217403333333333</v>
-      </c>
-      <c r="H8">
-        <v>0.365221</v>
-      </c>
-      <c r="I8">
-        <v>0.7771370572201287</v>
-      </c>
-      <c r="J8">
-        <v>0.7771370572201287</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>19.01418566666667</v>
-      </c>
-      <c r="N8">
-        <v>57.042557</v>
-      </c>
-      <c r="O8">
-        <v>0.1094963327100864</v>
-      </c>
-      <c r="P8">
-        <v>0.1094963327100864</v>
-      </c>
-      <c r="Q8">
-        <v>2.314793301121889</v>
-      </c>
-      <c r="R8">
-        <v>20.833139710097</v>
-      </c>
-      <c r="S8">
-        <v>0.08509365777871267</v>
-      </c>
-      <c r="T8">
-        <v>0.08509365777871268</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.1217403333333333</v>
-      </c>
-      <c r="H9">
-        <v>0.365221</v>
-      </c>
-      <c r="I9">
-        <v>0.7771370572201287</v>
-      </c>
-      <c r="J9">
-        <v>0.7771370572201287</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>10.852095</v>
-      </c>
-      <c r="N9">
-        <v>32.556285</v>
-      </c>
-      <c r="O9">
-        <v>0.06249358376701794</v>
-      </c>
-      <c r="P9">
-        <v>0.06249358376701795</v>
-      </c>
-      <c r="Q9">
-        <v>1.321137662665</v>
-      </c>
-      <c r="R9">
-        <v>11.890238963985</v>
-      </c>
-      <c r="S9">
-        <v>0.04856607978383993</v>
-      </c>
-      <c r="T9">
-        <v>0.04856607978383994</v>
+        <v>0.05218410806758598</v>
       </c>
     </row>
   </sheetData>
